--- a/Artea/data/key_advantages/key_advantages_summary.xlsx
+++ b/Artea/data/key_advantages/key_advantages_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\LP\Ads\dashboard\data\key_advantages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Artea\One Shot Analysis\dashboard\data\key_advantages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399E860-2AAB-46B5-9EDC-03B3A7F16A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6B457-090E-47D6-B340-3E9915A35B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="13896" xr2:uid="{D35F6AA8-9ED8-4F3A-8C94-B3D32DC87635}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D35F6AA8-9ED8-4F3A-8C94-B3D32DC87635}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,11 +41,11 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>DPD Lietuva – Positions itself as an environmentally responsible carrier, stressing sustainability achievements and awards.
-LP EXPRESS – Promotes practical delivery perks, frequent discounts (including student offers), and ease of shipping.
-Omniva Lietuva – Highlights reliability of service, competitive pricing, and user-friendly delivery processes.
-SmartPosti Lietuva – Markets technological innovation in delivery, secure indoor parcel storage, and cost-effective pricing.
-Venipak Lietuva – Emphasizes rapid delivery times, a large and convenient pickup network, and engagement with local communities.</t>
+    <t>Artea – Emphasizes travel benefits, easy investment access, and flexible financing.
+Citadele bankas – Highlights rewards programs, no monthly fees, and a convenient mobile app.
+Luminor Lietuva – Promotes easy client registration, flexible payment options, and personalized business consultations.
+SEB Lietuvoje – Positions itself as a guide for financial education, investment opportunities, and home ownership.
+Swedbank Lietuvoje – Stresses sustainability initiatives, investment education, and support for home improvement loans.</t>
   </si>
 </sst>
 </file>
@@ -81,11 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,14 +423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F312225D-16CF-4C12-B335-EB9E016DF434}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
